--- a/results_analysis/results_w8at_D100.xlsx
+++ b/results_analysis/results_w8at_D100.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826e759ec9f8b5cf/研一上学期/最优化理论/final/optimization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/826e759ec9f8b5cf/研一上学期/最优化理论/final/optimization/results_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="11_AD4DA82427541F7ACA7EB83EE8CB121C6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37E0D46B-29A2-49C0-ACFF-4E571669C93A}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_AD4DA82427541F7ACA7EB83EE8CB121C6AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{912ED2D6-487E-4935-A1F2-ABBD9EDE852C}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -194,10 +194,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4210,8 +4206,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.51275400000368232"/>
-          <c:y val="2.0925965547320007E-2"/>
+          <c:x val="0.51700536123431406"/>
+          <c:y val="0.18446541574687267"/>
           <c:w val="0.43363884552444643"/>
           <c:h val="0.18109026003294809"/>
         </c:manualLayout>
@@ -6869,8 +6865,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>109537</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3375</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6908,10 +6904,10 @@
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>445294</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>553894</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>46237</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6937,6 +6933,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11067,7 +11067,7 @@
   <dimension ref="A1:F202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -11092,10 +11092,10 @@
       <c r="A2" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="4">
         <v>0.66822104000000004</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="4">
         <v>0.66822104000000004</v>
       </c>
       <c r="D2" s="4"/>
@@ -11106,10 +11106,10 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>0.29654756999999998</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>0.29654756999999998</v>
       </c>
       <c r="D3" s="7"/>
@@ -11120,10 +11120,10 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="4">
         <v>0.17526212999999999</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>0.29111065000000003</v>
       </c>
       <c r="D4" s="4"/>
@@ -11134,10 +11134,10 @@
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>0.12246340999999999</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>0.26882337000000001</v>
       </c>
       <c r="D5" s="7"/>
@@ -11148,10 +11148,10 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="4">
         <v>0.10011848</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>0.26232780999999999</v>
       </c>
       <c r="D6" s="4"/>
@@ -11162,10 +11162,10 @@
       <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>9.4110849999999996E-2</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>0.25531477000000002</v>
       </c>
       <c r="D7" s="7"/>
@@ -11176,10 +11176,10 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="4">
         <v>9.4110849999999996E-2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>0.25418469999999999</v>
       </c>
       <c r="D8" s="4"/>
@@ -11190,10 +11190,10 @@
       <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>5.2489840000000003E-2</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>0.25469132</v>
       </c>
       <c r="D9" s="7"/>
@@ -11204,10 +11204,10 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="4">
         <v>3.5157689999999998E-2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>0.25512667</v>
       </c>
       <c r="D10" s="4"/>
@@ -11218,10 +11218,10 @@
       <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>2.9451689999999999E-2</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>0.25509764000000001</v>
       </c>
       <c r="D11" s="7"/>
@@ -11232,10 +11232,10 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="4">
         <v>2.8327049999999999E-2</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>0.25473533999999998</v>
       </c>
       <c r="D12" s="4"/>
@@ -11246,10 +11246,10 @@
       <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>2.8327049999999999E-2</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>0.25435258999999999</v>
       </c>
       <c r="D13" s="7"/>
@@ -11260,10 +11260,10 @@
       <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="4">
         <v>1.1756259999999999E-2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>0.2541641</v>
       </c>
       <c r="D14" s="4"/>
@@ -11274,10 +11274,10 @@
       <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>6.51499E-3</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>0.25415834999999998</v>
       </c>
       <c r="D15" s="7"/>
@@ -11288,10 +11288,10 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="4">
         <v>5.9127299999999997E-3</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="4">
         <v>0.25422438000000003</v>
       </c>
       <c r="D16" s="4"/>
@@ -11302,10 +11302,10 @@
       <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <v>5.8762700000000003E-3</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>0.25428149999999999</v>
       </c>
       <c r="D17" s="7"/>
@@ -11316,10 +11316,10 @@
       <c r="A18" s="3">
         <v>16</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="4">
         <v>5.8762700000000003E-3</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="4">
         <v>0.2542857</v>
       </c>
       <c r="D18" s="4"/>
@@ -11330,10 +11330,10 @@
       <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>2.30029E-3</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>0.25425747999999998</v>
       </c>
       <c r="D19" s="7"/>
@@ -11344,10 +11344,10 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="4">
         <v>4.7491999999999999E-4</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="4">
         <v>0.25422992999999999</v>
       </c>
       <c r="D20" s="4"/>
@@ -11358,10 +11358,10 @@
       <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <v>7.0049999999999995E-4</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>0.25421497999999998</v>
       </c>
       <c r="D21" s="7"/>
@@ -11372,10 +11372,10 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="4">
         <v>8.3741999999999996E-4</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="4">
         <v>0.25421781999999998</v>
       </c>
       <c r="D22" s="4"/>
@@ -11386,10 +11386,10 @@
       <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="7">
         <v>8.6050000000000005E-4</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <v>0.23436156</v>
       </c>
       <c r="D23" s="7"/>
@@ -11400,10 +11400,10 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="4">
         <v>8.6050000000000005E-4</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="4">
         <v>0.23208965000000001</v>
       </c>
       <c r="D24" s="4"/>
@@ -11414,10 +11414,10 @@
       <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="7">
         <v>2.8987000000000001E-4</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <v>0.23125113</v>
       </c>
       <c r="D25" s="7"/>
@@ -11428,10 +11428,10 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="4">
         <v>6.3650000000000002E-5</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="4">
         <v>0.23113718999999999</v>
       </c>
       <c r="D26" s="4"/>
@@ -11442,10 +11442,10 @@
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="7">
         <v>8.5370000000000004E-5</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <v>0.23113022</v>
       </c>
       <c r="D27" s="7"/>
@@ -11456,10 +11456,10 @@
       <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="4">
         <v>9.6360000000000006E-5</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="4">
         <v>0.23113453</v>
       </c>
       <c r="D28" s="4"/>
@@ -11470,10 +11470,10 @@
       <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="7">
         <v>9.7899999999999994E-5</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <v>0.22423027000000001</v>
       </c>
       <c r="D29" s="7"/>
@@ -11484,10 +11484,10 @@
       <c r="A30" s="3">
         <v>28</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="4">
         <v>9.7899999999999994E-5</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="4">
         <v>0.22390075000000001</v>
       </c>
       <c r="D30" s="4"/>
@@ -11498,10 +11498,10 @@
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="7">
         <v>1.7289999999999999E-5</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <v>0.22386426000000001</v>
       </c>
       <c r="D31" s="7"/>
@@ -11512,10 +11512,10 @@
       <c r="A32" s="3">
         <v>30</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="4">
         <v>1.102E-5</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="4">
         <v>0.22386524999999999</v>
       </c>
       <c r="D32" s="4"/>
@@ -11526,10 +11526,10 @@
       <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="7">
         <v>9.8700000000000004E-6</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="7">
         <v>0.22386658000000001</v>
       </c>
       <c r="D33" s="7"/>
@@ -11540,10 +11540,10 @@
       <c r="A34" s="3">
         <v>32</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34" s="4">
         <v>9.8700000000000004E-6</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="4">
         <v>0.22305415000000001</v>
       </c>
       <c r="D34" s="4"/>
@@ -11554,10 +11554,10 @@
       <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="7">
         <v>4.5800000000000002E-6</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>0.22305150000000001</v>
       </c>
       <c r="D35" s="7"/>
@@ -11568,10 +11568,10 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="4">
         <v>5.0999999999999999E-7</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="4">
         <v>0.22297702</v>
       </c>
       <c r="D36" s="4"/>
@@ -11582,10 +11582,10 @@
       <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="7">
         <v>7.6000000000000003E-7</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="7">
         <v>0.22296985999999999</v>
       </c>
       <c r="D37" s="7"/>
@@ -11596,10 +11596,10 @@
       <c r="A38" s="3">
         <v>36</v>
       </c>
-      <c r="B38" s="9">
+      <c r="B38" s="4">
         <v>9.4E-7</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="4">
         <v>0.22296915</v>
       </c>
       <c r="D38" s="4"/>
@@ -11610,10 +11610,10 @@
       <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <v>0.22296907999999999</v>
       </c>
       <c r="D39" s="7"/>
@@ -11624,10 +11624,10 @@
       <c r="A40" s="3">
         <v>38</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="4">
         <v>0.22296906999999999</v>
       </c>
       <c r="D40" s="4"/>
@@ -11638,10 +11638,10 @@
       <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="7">
         <v>4.4000000000000002E-7</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="7">
         <v>0.22296906999999999</v>
       </c>
       <c r="D41" s="7"/>
@@ -11652,10 +11652,10 @@
       <c r="A42" s="3">
         <v>40</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42" s="4">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="4">
         <v>0.1809817</v>
       </c>
       <c r="D42" s="4"/>
@@ -11666,10 +11666,10 @@
       <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="7">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="7">
         <v>0.11695112000000001</v>
       </c>
       <c r="D43" s="7"/>
@@ -11680,10 +11680,10 @@
       <c r="A44" s="3">
         <v>42</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44" s="4">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="4">
         <v>0.13205115000000001</v>
       </c>
       <c r="D44" s="4"/>
@@ -11694,10 +11694,10 @@
       <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="7">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="7">
         <v>0.14483660000000001</v>
       </c>
       <c r="D45" s="7"/>
@@ -11708,10 +11708,10 @@
       <c r="A46" s="3">
         <v>44</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46" s="4">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="4">
         <v>0.14130275</v>
       </c>
       <c r="D46" s="4"/>
@@ -11722,10 +11722,10 @@
       <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="7">
         <v>1E-8</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="7">
         <v>0.14068136000000001</v>
       </c>
       <c r="D47" s="7"/>
@@ -11736,10 +11736,10 @@
       <c r="A48" s="3">
         <v>46</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48" s="4">
         <v>1E-8</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="4">
         <v>0.1408412</v>
       </c>
       <c r="D48" s="4"/>
@@ -11750,10 +11750,10 @@
       <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="7">
         <v>1E-8</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="7">
         <v>0.14102529</v>
       </c>
       <c r="D49" s="7"/>
@@ -11764,10 +11764,10 @@
       <c r="A50" s="3">
         <v>48</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50" s="4">
         <v>1E-8</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="4">
         <v>0.14102207</v>
       </c>
       <c r="D50" s="4"/>
@@ -11778,10 +11778,10 @@
       <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="7">
         <v>1E-8</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="7">
         <v>0.14096154999999999</v>
       </c>
       <c r="D51" s="7"/>
@@ -11792,8 +11792,8 @@
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4">
         <v>0.11224439999999999</v>
       </c>
       <c r="D52" s="4"/>
@@ -11804,8 +11804,8 @@
       <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7">
         <v>0.10902476</v>
       </c>
       <c r="D53" s="7"/>
@@ -11816,8 +11816,8 @@
       <c r="A54" s="3">
         <v>52</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4">
         <v>0.1077163</v>
       </c>
       <c r="D54" s="4"/>
@@ -11828,8 +11828,8 @@
       <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7">
         <v>0.10751635</v>
       </c>
       <c r="D55" s="7"/>
@@ -11840,8 +11840,8 @@
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4">
         <v>0.10749309999999999</v>
       </c>
       <c r="D56" s="4"/>
@@ -11851,8 +11851,8 @@
       <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7">
         <v>9.6109059999999996E-2</v>
       </c>
       <c r="D57" s="7"/>
@@ -11861,8 +11861,8 @@
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4">
         <v>9.5447160000000003E-2</v>
       </c>
       <c r="D58" s="4"/>
@@ -11871,8 +11871,8 @@
       <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7">
         <v>9.5373250000000007E-2</v>
       </c>
       <c r="D59" s="7"/>
@@ -11881,8 +11881,8 @@
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4">
         <v>9.5372429999999994E-2</v>
       </c>
       <c r="D60" s="4"/>
@@ -11891,8 +11891,8 @@
       <c r="A61" s="6">
         <v>59</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7">
         <v>9.5373780000000005E-2</v>
       </c>
       <c r="D61" s="7"/>
@@ -11901,8 +11901,8 @@
       <c r="A62" s="3">
         <v>60</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4">
         <v>9.4029920000000003E-2</v>
       </c>
       <c r="D62" s="4"/>
@@ -11911,8 +11911,8 @@
       <c r="A63" s="6">
         <v>61</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7">
         <v>9.4030489999999994E-2</v>
       </c>
       <c r="D63" s="7"/>
@@ -11921,8 +11921,8 @@
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4">
         <v>9.3926960000000004E-2</v>
       </c>
       <c r="D64" s="4"/>
@@ -11931,8 +11931,8 @@
       <c r="A65" s="6">
         <v>63</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7">
         <v>9.391774E-2</v>
       </c>
       <c r="D65" s="7"/>
@@ -11941,8 +11941,8 @@
       <c r="A66" s="3">
         <v>64</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4">
         <v>9.3916830000000007E-2</v>
       </c>
       <c r="D66" s="4"/>
@@ -11951,8 +11951,8 @@
       <c r="A67" s="6">
         <v>65</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7">
         <v>9.3916739999999999E-2</v>
       </c>
       <c r="D67" s="7"/>
@@ -11961,8 +11961,8 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4">
         <v>0.11391168</v>
       </c>
       <c r="D68" s="4"/>
@@ -11971,8 +11971,8 @@
       <c r="A69" s="6">
         <v>67</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7">
         <v>0.11391168</v>
       </c>
       <c r="D69" s="7"/>
@@ -11981,8 +11981,8 @@
       <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4">
         <v>0.10816185</v>
       </c>
       <c r="D70" s="4"/>
@@ -11991,8 +11991,8 @@
       <c r="A71" s="6">
         <v>69</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7">
         <v>7.8819280000000005E-2</v>
       </c>
       <c r="D71" s="7"/>
@@ -12001,8 +12001,8 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4">
         <v>9.8383709999999999E-2</v>
       </c>
       <c r="D72" s="4"/>
@@ -12011,8 +12011,8 @@
       <c r="A73" s="6">
         <v>71</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7">
         <v>0.10819747</v>
       </c>
       <c r="D73" s="7"/>
@@ -12021,8 +12021,8 @@
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4">
         <v>0.10600862</v>
       </c>
       <c r="D74" s="4"/>
@@ -12031,8 +12031,8 @@
       <c r="A75" s="6">
         <v>73</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7">
         <v>0.10684275999999999</v>
       </c>
       <c r="D75" s="7"/>
@@ -12041,8 +12041,8 @@
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4">
         <v>0.10709730000000001</v>
       </c>
       <c r="D76" s="4"/>
@@ -12051,8 +12051,8 @@
       <c r="A77" s="6">
         <v>75</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7">
         <v>0.10683984000000001</v>
       </c>
       <c r="D77" s="7"/>
@@ -12061,8 +12061,8 @@
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4">
         <v>0.10683784</v>
       </c>
       <c r="D78" s="4"/>
@@ -12071,8 +12071,8 @@
       <c r="A79" s="6">
         <v>77</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7">
         <v>0.10691539</v>
       </c>
       <c r="D79" s="7"/>
@@ -12081,8 +12081,8 @@
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4">
         <v>0.10690458</v>
       </c>
       <c r="D80" s="4"/>
@@ -12091,8 +12091,8 @@
       <c r="A81" s="6">
         <v>79</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7">
         <v>6.6188369999999996E-2</v>
       </c>
       <c r="D81" s="7"/>
@@ -12101,8 +12101,8 @@
       <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4">
         <v>6.2003460000000003E-2</v>
       </c>
       <c r="D82" s="4"/>
@@ -12111,8 +12111,8 @@
       <c r="A83" s="6">
         <v>81</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7">
         <v>6.0194360000000002E-2</v>
       </c>
       <c r="D83" s="7"/>
@@ -12121,8 +12121,8 @@
       <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4">
         <v>5.9893700000000001E-2</v>
       </c>
       <c r="D84" s="4"/>
@@ -12131,8 +12131,8 @@
       <c r="A85" s="6">
         <v>83</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7">
         <v>5.9850159999999999E-2</v>
       </c>
       <c r="D85" s="7"/>
@@ -12141,8 +12141,8 @@
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4">
         <v>4.2782779999999999E-2</v>
       </c>
       <c r="D86" s="4"/>
@@ -12151,8 +12151,8 @@
       <c r="A87" s="6">
         <v>85</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7">
         <v>4.1475919999999999E-2</v>
       </c>
       <c r="D87" s="7"/>
@@ -12161,8 +12161,8 @@
       <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4">
         <v>4.1299639999999999E-2</v>
       </c>
       <c r="D88" s="4"/>
@@ -12171,8 +12171,8 @@
       <c r="A89" s="6">
         <v>87</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7">
         <v>4.1295369999999998E-2</v>
       </c>
       <c r="D89" s="7"/>
@@ -12181,8 +12181,8 @@
       <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4">
         <v>3.8457180000000001E-2</v>
       </c>
       <c r="D90" s="4"/>
@@ -12191,8 +12191,8 @@
       <c r="A91" s="6">
         <v>89</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7">
         <v>3.8491949999999997E-2</v>
       </c>
       <c r="D91" s="7"/>
@@ -12201,8 +12201,8 @@
       <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4">
         <v>3.8489959999999997E-2</v>
       </c>
       <c r="D92" s="4"/>
@@ -12211,8 +12211,8 @@
       <c r="A93" s="6">
         <v>91</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7">
         <v>3.829581E-2</v>
       </c>
       <c r="D93" s="7"/>
@@ -12221,8 +12221,8 @@
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4">
         <v>3.829631E-2</v>
       </c>
       <c r="D94" s="4"/>
@@ -12231,8 +12231,8 @@
       <c r="A95" s="6">
         <v>93</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11">
+      <c r="B95" s="7"/>
+      <c r="C95" s="7">
         <v>3.8282289999999997E-2</v>
       </c>
       <c r="D95" s="7"/>
@@ -12241,8 +12241,8 @@
       <c r="A96" s="3">
         <v>94</v>
       </c>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4">
         <v>3.8280990000000001E-2</v>
       </c>
       <c r="D96" s="4"/>
@@ -12251,8 +12251,8 @@
       <c r="A97" s="6">
         <v>95</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7">
         <v>3.828086E-2</v>
       </c>
       <c r="D97" s="7"/>
@@ -12261,8 +12261,8 @@
       <c r="A98" s="3">
         <v>96</v>
       </c>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4">
         <v>5.7101800000000001E-2</v>
       </c>
       <c r="D98" s="4"/>
@@ -12271,140 +12271,140 @@
       <c r="A99" s="6">
         <v>97</v>
       </c>
-      <c r="B99" s="11"/>
+      <c r="B99" s="7"/>
       <c r="D99" s="7"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <v>98</v>
       </c>
-      <c r="B100" s="9"/>
+      <c r="B100" s="4"/>
       <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="6">
         <v>99</v>
       </c>
-      <c r="B101" s="11"/>
+      <c r="B101" s="7"/>
       <c r="D101" s="7"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <v>100</v>
       </c>
-      <c r="B102" s="9"/>
+      <c r="B102" s="4"/>
       <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="6">
         <v>101</v>
       </c>
-      <c r="B103" s="11"/>
+      <c r="B103" s="7"/>
       <c r="D103" s="7"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <v>102</v>
       </c>
-      <c r="B104" s="9"/>
+      <c r="B104" s="4"/>
       <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="6">
         <v>103</v>
       </c>
-      <c r="B105" s="11"/>
+      <c r="B105" s="7"/>
       <c r="D105" s="7"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <v>104</v>
       </c>
-      <c r="B106" s="9"/>
+      <c r="B106" s="4"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="6">
         <v>105</v>
       </c>
-      <c r="B107" s="11"/>
+      <c r="B107" s="7"/>
       <c r="D107" s="7"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <v>106</v>
       </c>
-      <c r="B108" s="9"/>
+      <c r="B108" s="4"/>
       <c r="D108" s="4"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="6">
         <v>107</v>
       </c>
-      <c r="B109" s="11"/>
+      <c r="B109" s="7"/>
       <c r="D109" s="7"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
         <v>108</v>
       </c>
-      <c r="B110" s="9"/>
+      <c r="B110" s="4"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="6">
         <v>109</v>
       </c>
-      <c r="B111" s="11"/>
+      <c r="B111" s="7"/>
       <c r="D111" s="7"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
         <v>110</v>
       </c>
-      <c r="B112" s="9"/>
+      <c r="B112" s="4"/>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="6">
         <v>111</v>
       </c>
-      <c r="B113" s="11"/>
+      <c r="B113" s="7"/>
       <c r="D113" s="7"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <v>112</v>
       </c>
-      <c r="B114" s="9"/>
+      <c r="B114" s="4"/>
       <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="6">
         <v>113</v>
       </c>
-      <c r="B115" s="11"/>
+      <c r="B115" s="7"/>
       <c r="D115" s="7"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <v>114</v>
       </c>
-      <c r="B116" s="9"/>
+      <c r="B116" s="4"/>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="6">
         <v>115</v>
       </c>
-      <c r="B117" s="11"/>
+      <c r="B117" s="7"/>
       <c r="D117" s="7"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <v>116</v>
       </c>
-      <c r="B118" s="9"/>
+      <c r="B118" s="4"/>
       <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -12948,16 +12948,16 @@
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="9">
+      <c r="A2" s="4">
         <v>0.66822104000000004</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="5">
         <v>0.2324</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="4">
         <v>0.66822104000000004</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>0.92579999999999996</v>
       </c>
       <c r="E2" s="7"/>
@@ -12968,16 +12968,16 @@
       <c r="J2" s="5"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <v>0.29654756999999998</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>1.028</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>0.29654756999999998</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="8">
         <v>1.6872</v>
       </c>
       <c r="E3" s="4"/>
@@ -12988,16 +12988,16 @@
       <c r="J3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="9">
+      <c r="A4" s="4">
         <v>0.17526212999999999</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="5">
         <v>2.0924</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="4">
         <v>0.29111065000000003</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <v>2.8412000000000002</v>
       </c>
       <c r="E4" s="7"/>
@@ -13008,16 +13008,16 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="11">
+      <c r="A5" s="7">
         <v>0.12246340999999999</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>2.8014999999999999</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>0.26882337000000001</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>3.8113999999999999</v>
       </c>
       <c r="E5" s="4"/>
@@ -13028,16 +13028,16 @@
       <c r="J5" s="8"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="9">
+      <c r="A6" s="4">
         <v>0.10011848</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="5">
         <v>3.5291999999999999</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="4">
         <v>0.26232780999999999</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="5">
         <v>4.5557999999999996</v>
       </c>
       <c r="E6" s="7"/>
@@ -13048,16 +13048,16 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="11">
+      <c r="A7" s="7">
         <v>9.4110849999999996E-2</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>4.1847000000000003</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>0.25531477000000002</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>5.4562999999999997</v>
       </c>
       <c r="E7" s="4"/>
@@ -13068,16 +13068,16 @@
       <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="9">
+      <c r="A8" s="4">
         <v>9.4110849999999996E-2</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="5">
         <v>4.4389000000000003</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="4">
         <v>0.25418469999999999</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="5">
         <v>6.2821999999999996</v>
       </c>
       <c r="E8" s="7"/>
@@ -13088,16 +13088,16 @@
       <c r="J8" s="5"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="11">
+      <c r="A9" s="7">
         <v>5.2489840000000003E-2</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>5.1421000000000001</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>0.25469132</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="8">
         <v>7.1924000000000001</v>
       </c>
       <c r="E9" s="4"/>
@@ -13108,16 +13108,16 @@
       <c r="J9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="9">
+      <c r="A10" s="4">
         <v>3.5157689999999998E-2</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="5">
         <v>6.0076000000000001</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="4">
         <v>0.25512667</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="5">
         <v>8.0416000000000007</v>
       </c>
       <c r="E10" s="7"/>
@@ -13128,16 +13128,16 @@
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="11">
+      <c r="A11" s="7">
         <v>2.9451689999999999E-2</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>6.6555</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>0.25509764000000001</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="8">
         <v>8.7611000000000008</v>
       </c>
       <c r="E11" s="4"/>
@@ -13148,16 +13148,16 @@
       <c r="J11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="9">
+      <c r="A12" s="4">
         <v>2.8327049999999999E-2</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="5">
         <v>7.2637</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="4">
         <v>0.25473533999999998</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="5">
         <v>9.4454999999999991</v>
       </c>
       <c r="E12" s="7"/>
@@ -13168,16 +13168,16 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>2.8327049999999999E-2</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>7.7994000000000003</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>0.25435258999999999</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="8">
         <v>10.2928</v>
       </c>
       <c r="E13" s="4"/>
@@ -13188,16 +13188,16 @@
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="9">
+      <c r="A14" s="4">
         <v>1.1756259999999999E-2</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="5">
         <v>8.8474000000000004</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="4">
         <v>0.2541641</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="5">
         <v>11.1266</v>
       </c>
       <c r="E14" s="7"/>
@@ -13208,16 +13208,16 @@
       <c r="J14" s="5"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="11">
+      <c r="A15" s="7">
         <v>6.51499E-3</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="8">
         <v>9.4844000000000008</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>0.25415834999999998</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="8">
         <v>11.9331</v>
       </c>
       <c r="E15" s="4"/>
@@ -13228,16 +13228,16 @@
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="9">
+      <c r="A16" s="4">
         <v>5.9127299999999997E-3</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="5">
         <v>10.4017</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="4">
         <v>0.25422438000000003</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="5">
         <v>12.902200000000001</v>
       </c>
       <c r="E16" s="7"/>
@@ -13248,16 +13248,16 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>5.8762700000000003E-3</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>11.0921</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>0.25428149999999999</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="8">
         <v>13.5885</v>
       </c>
       <c r="E17" s="4"/>
@@ -13268,16 +13268,16 @@
       <c r="J17" s="8"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="9">
+      <c r="A18" s="4">
         <v>5.8762700000000003E-3</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="5">
         <v>11.317299999999999</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="4">
         <v>0.2542857</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="5">
         <v>14.53</v>
       </c>
       <c r="E18" s="7"/>
@@ -13288,16 +13288,16 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="11">
+      <c r="A19" s="7">
         <v>2.30029E-3</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="8">
         <v>11.908200000000001</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>0.25425747999999998</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="8">
         <v>15.4445</v>
       </c>
       <c r="E19" s="4"/>
@@ -13308,16 +13308,16 @@
       <c r="J19" s="8"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="9">
+      <c r="A20" s="4">
         <v>4.7491999999999999E-4</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="5">
         <v>12.571999999999999</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="4">
         <v>0.25422992999999999</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="5">
         <v>16.456499999999998</v>
       </c>
       <c r="E20" s="7"/>
@@ -13328,16 +13328,16 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="11">
+      <c r="A21" s="7">
         <v>7.0049999999999995E-4</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="8">
         <v>13.4293</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>0.25421497999999998</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="8">
         <v>17.2226</v>
       </c>
       <c r="E21" s="4"/>
@@ -13348,16 +13348,16 @@
       <c r="J21" s="8"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="9">
+      <c r="A22" s="4">
         <v>8.3741999999999996E-4</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="5">
         <v>14.0588</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="4">
         <v>0.25421781999999998</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="5">
         <v>18.1905</v>
       </c>
       <c r="E22" s="7"/>
@@ -13368,16 +13368,16 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="11">
+      <c r="A23" s="7">
         <v>8.6050000000000005E-4</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="8">
         <v>14.7879</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <v>0.23436156</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="8">
         <v>18.946899999999999</v>
       </c>
       <c r="E23" s="4"/>
@@ -13388,16 +13388,16 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="9">
+      <c r="A24" s="4">
         <v>8.6050000000000005E-4</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="5">
         <v>15.077999999999999</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="4">
         <v>0.23208965000000001</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="5">
         <v>19.913599999999999</v>
       </c>
       <c r="E24" s="7"/>
@@ -13408,16 +13408,16 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="11">
+      <c r="A25" s="7">
         <v>2.8987000000000001E-4</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="8">
         <v>16.018699999999999</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <v>0.23125113</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <v>20.752099999999999</v>
       </c>
       <c r="E25" s="4"/>
@@ -13428,16 +13428,16 @@
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="9">
+      <c r="A26" s="4">
         <v>6.3650000000000002E-5</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="5">
         <v>16.6541</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="4">
         <v>0.23113718999999999</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="5">
         <v>21.451699999999999</v>
       </c>
       <c r="E26" s="7"/>
@@ -13448,16 +13448,16 @@
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="11">
+      <c r="A27" s="7">
         <v>8.5370000000000004E-5</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="8">
         <v>17.3872</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <v>0.23113022</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="8">
         <v>22.5779</v>
       </c>
       <c r="E27" s="4"/>
@@ -13468,16 +13468,16 @@
       <c r="J27" s="8"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="9">
+      <c r="A28" s="4">
         <v>9.6360000000000006E-5</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="5">
         <v>18.4438</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="4">
         <v>0.23113453</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="5">
         <v>23.659199999999998</v>
       </c>
       <c r="E28" s="7"/>
@@ -13488,16 +13488,16 @@
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="11">
+      <c r="A29" s="7">
         <v>9.7899999999999994E-5</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="8">
         <v>19.278500000000001</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <v>0.22423027000000001</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="8">
         <v>24.650500000000001</v>
       </c>
       <c r="E29" s="4"/>
@@ -13508,16 +13508,16 @@
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="9">
+      <c r="A30" s="4">
         <v>9.7899999999999994E-5</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="5">
         <v>19.520700000000001</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="4">
         <v>0.22390075000000001</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="5">
         <v>25.448599999999999</v>
       </c>
       <c r="E30" s="7"/>
@@ -13528,16 +13528,16 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="11">
+      <c r="A31" s="7">
         <v>1.7289999999999999E-5</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="8">
         <v>20.259799999999998</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <v>0.22386426000000001</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="8">
         <v>26.6175</v>
       </c>
       <c r="E31" s="4"/>
@@ -13548,16 +13548,16 @@
       <c r="J31" s="8"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="9">
+      <c r="A32" s="4">
         <v>1.102E-5</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="5">
         <v>21.770800000000001</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="4">
         <v>0.22386524999999999</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="5">
         <v>28.5611</v>
       </c>
       <c r="E32" s="7"/>
@@ -13568,16 +13568,16 @@
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="11">
+      <c r="A33" s="7">
         <v>9.8700000000000004E-6</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="8">
         <v>22.373799999999999</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="7">
         <v>0.22386658000000001</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="8">
         <v>29.502400000000002</v>
       </c>
       <c r="E33" s="4"/>
@@ -13588,16 +13588,16 @@
       <c r="J33" s="8"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="9">
+      <c r="A34" s="4">
         <v>9.8700000000000004E-6</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="5">
         <v>22.595300000000002</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="4">
         <v>0.22305415000000001</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="5">
         <v>30.4328</v>
       </c>
       <c r="E34" s="7"/>
@@ -13608,16 +13608,16 @@
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A35" s="11">
+      <c r="A35" s="7">
         <v>4.5800000000000002E-6</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="8">
         <v>23.452100000000002</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>0.22305150000000001</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="8">
         <v>32.388599999999997</v>
       </c>
       <c r="E35" s="4"/>
@@ -13628,16 +13628,16 @@
       <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" s="9">
+      <c r="A36" s="4">
         <v>5.0999999999999999E-7</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="5">
         <v>24.254000000000001</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="4">
         <v>0.22297702</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="5">
         <v>33.934800000000003</v>
       </c>
       <c r="E36" s="7"/>
@@ -13648,16 +13648,16 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37" s="11">
+      <c r="A37" s="7">
         <v>7.6000000000000003E-7</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="8">
         <v>24.897200000000002</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="7">
         <v>0.22296985999999999</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="8">
         <v>34.8964</v>
       </c>
       <c r="E37" s="4"/>
@@ -13668,16 +13668,16 @@
       <c r="J37" s="8"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A38" s="9">
+      <c r="A38" s="4">
         <v>9.4E-7</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="5">
         <v>25.738299999999999</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="4">
         <v>0.22296915</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="5">
         <v>36.012900000000002</v>
       </c>
       <c r="E38" s="7"/>
@@ -13688,16 +13688,16 @@
       <c r="J38" s="5"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A39" s="11">
+      <c r="A39" s="7">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="8">
         <v>27.004899999999999</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <v>0.22296907999999999</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="8">
         <v>37.234099999999998</v>
       </c>
       <c r="E39" s="4"/>
@@ -13708,16 +13708,16 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A40" s="9">
+      <c r="A40" s="4">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="5">
         <v>27.2271</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="4">
         <v>0.22296906999999999</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="5">
         <v>37.348599999999998</v>
       </c>
       <c r="E40" s="7"/>
@@ -13728,16 +13728,16 @@
       <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A41" s="11">
+      <c r="A41" s="7">
         <v>4.4000000000000002E-7</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="8">
         <v>27.934200000000001</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="7">
         <v>0.22296906999999999</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="8">
         <v>38.871299999999998</v>
       </c>
       <c r="E41" s="4"/>
@@ -13748,16 +13748,16 @@
       <c r="J41" s="8"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A42" s="9">
+      <c r="A42" s="4">
         <v>7.0000000000000005E-8</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="5">
         <v>28.808399999999999</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="4">
         <v>0.1809817</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="5">
         <v>39.8078</v>
       </c>
       <c r="E42" s="7"/>
@@ -13768,16 +13768,16 @@
       <c r="J42" s="5"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A43" s="11">
+      <c r="A43" s="7">
         <v>8.9999999999999999E-8</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="8">
         <v>29.4177</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="7">
         <v>0.11695112000000001</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="8">
         <v>41.102800000000002</v>
       </c>
       <c r="E43" s="4"/>
@@ -13788,16 +13788,16 @@
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A44" s="9">
+      <c r="A44" s="4">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="5">
         <v>30.073499999999999</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="4">
         <v>0.13205115000000001</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="5">
         <v>41.939900000000002</v>
       </c>
       <c r="E44" s="7"/>
@@ -13808,16 +13808,16 @@
       <c r="J44" s="5"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A45" s="11">
+      <c r="A45" s="7">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="8">
         <v>30.290400000000002</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="7">
         <v>0.14483660000000001</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="8">
         <v>42.830300000000001</v>
       </c>
       <c r="E45" s="4"/>
@@ -13828,16 +13828,16 @@
       <c r="J45" s="8"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A46" s="9">
+      <c r="A46" s="4">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="5">
         <v>31.032299999999999</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="4">
         <v>0.14130275</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="5">
         <v>44.091999999999999</v>
       </c>
       <c r="E46" s="7"/>
@@ -13848,16 +13848,16 @@
       <c r="J46" s="5"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A47" s="11">
+      <c r="A47" s="7">
         <v>1E-8</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="8">
         <v>31.656400000000001</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="7">
         <v>0.14068136000000001</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="8">
         <v>44.891100000000002</v>
       </c>
       <c r="E47" s="4"/>
@@ -13868,16 +13868,16 @@
       <c r="J47" s="8"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A48" s="9">
+      <c r="A48" s="4">
         <v>1E-8</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="5">
         <v>32.233499999999999</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="4">
         <v>0.1408412</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="5">
         <v>45.838099999999997</v>
       </c>
       <c r="E48" s="7"/>
@@ -13888,16 +13888,16 @@
       <c r="J48" s="5"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A49" s="11">
+      <c r="A49" s="7">
         <v>1E-8</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="8">
         <v>32.8245</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="7">
         <v>0.14102529</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="8">
         <v>46.5563</v>
       </c>
       <c r="E49" s="4"/>
@@ -13908,16 +13908,16 @@
       <c r="J49" s="8"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A50" s="9">
+      <c r="A50" s="4">
         <v>1E-8</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="5">
         <v>33.148800000000001</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="4">
         <v>0.14102207</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="5">
         <v>47.468699999999998</v>
       </c>
       <c r="E50" s="7"/>
@@ -13928,16 +13928,16 @@
       <c r="J50" s="5"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A51" s="11">
+      <c r="A51" s="7">
         <v>1E-8</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="8">
         <v>33.408099999999997</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="7">
         <v>0.14096154999999999</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="8">
         <v>48.423999999999999</v>
       </c>
       <c r="E51" s="4"/>
@@ -13948,12 +13948,12 @@
       <c r="J51" s="8"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="9">
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="4">
         <v>0.11224439999999999</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="5">
         <v>49.148600000000002</v>
       </c>
       <c r="E52" s="7"/>
@@ -13964,12 +13964,12 @@
       <c r="J52" s="5"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="11">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="7">
         <v>0.10902476</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="8">
         <v>49.9621</v>
       </c>
       <c r="E53" s="4"/>
@@ -13980,12 +13980,12 @@
       <c r="J53" s="8"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A54" s="9"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="9">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="4">
         <v>0.1077163</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="5">
         <v>51.290300000000002</v>
       </c>
       <c r="E54" s="7"/>
@@ -13996,12 +13996,12 @@
       <c r="J54" s="5"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="11">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="7">
         <v>0.10751635</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="8">
         <v>52.084899999999998</v>
       </c>
       <c r="E55" s="4"/>
@@ -14010,12 +14010,12 @@
       <c r="J55" s="8"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A56" s="9"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="9">
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="4">
         <v>0.10749309999999999</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="5">
         <v>53.238300000000002</v>
       </c>
       <c r="E56" s="7"/>
@@ -14026,12 +14026,12 @@
       <c r="J56" s="5"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="11">
+      <c r="A57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="7">
         <v>9.6109059999999996E-2</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="8">
         <v>54.2607</v>
       </c>
       <c r="E57" s="4"/>
@@ -14042,12 +14042,12 @@
       <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A58" s="9"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="9">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="4">
         <v>9.5447160000000003E-2</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="5">
         <v>56.0702</v>
       </c>
       <c r="E58" s="7"/>
@@ -14058,12 +14058,12 @@
       <c r="J58" s="5"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="11">
+      <c r="A59" s="7"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="7">
         <v>9.5373250000000007E-2</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="8">
         <v>57.071199999999997</v>
       </c>
       <c r="E59" s="4"/>
@@ -14074,12 +14074,12 @@
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="9">
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="4">
         <v>9.5372429999999994E-2</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="5">
         <v>58.239100000000001</v>
       </c>
       <c r="E60" s="7"/>
@@ -14090,12 +14090,12 @@
       <c r="J60" s="5"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="11">
+      <c r="A61" s="7"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="7">
         <v>9.5373780000000005E-2</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="8">
         <v>60.1678</v>
       </c>
       <c r="E61" s="4"/>
@@ -14106,12 +14106,12 @@
       <c r="J61" s="8"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A62" s="9"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="9">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="4">
         <v>9.4029920000000003E-2</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="5">
         <v>61.272599999999997</v>
       </c>
       <c r="E62" s="7"/>
@@ -14122,12 +14122,12 @@
       <c r="J62" s="5"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="11">
+      <c r="A63" s="7"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="7">
         <v>9.4030489999999994E-2</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="8">
         <v>62.303899999999999</v>
       </c>
       <c r="E63" s="4"/>
@@ -14138,12 +14138,12 @@
       <c r="J63" s="8"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A64" s="9"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="9">
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="4">
         <v>9.3926960000000004E-2</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="5">
         <v>63.398400000000002</v>
       </c>
       <c r="E64" s="7"/>
@@ -14152,12 +14152,12 @@
       <c r="J64" s="5"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="11">
+      <c r="A65" s="7"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="7">
         <v>9.391774E-2</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="8">
         <v>64.877399999999994</v>
       </c>
       <c r="E65" s="4"/>
@@ -14166,12 +14166,12 @@
       <c r="J65" s="8"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A66" s="9"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="9">
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="4">
         <v>9.3916830000000007E-2</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="5">
         <v>65.920699999999997</v>
       </c>
       <c r="E66" s="7"/>
@@ -14180,12 +14180,12 @@
       <c r="J66" s="5"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="11">
+      <c r="A67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="7">
         <v>9.3916739999999999E-2</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="8">
         <v>67.019900000000007</v>
       </c>
       <c r="E67" s="4"/>
@@ -14194,12 +14194,12 @@
       <c r="J67" s="8"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A68" s="9"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="9">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="4">
         <v>0.11391168</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="5">
         <v>67.1571</v>
       </c>
       <c r="E68" s="7"/>
@@ -14208,12 +14208,12 @@
       <c r="J68" s="5"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="11">
+      <c r="A69" s="7"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="7">
         <v>0.11391168</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="8">
         <v>68.277199999999993</v>
       </c>
       <c r="E69" s="4"/>
@@ -14222,12 +14222,12 @@
       <c r="J69" s="8"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="9">
+      <c r="A70" s="4"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="4">
         <v>0.10816185</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="5">
         <v>69.113200000000006</v>
       </c>
       <c r="E70" s="7"/>
@@ -14236,12 +14236,12 @@
       <c r="J70" s="5"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="11">
+      <c r="A71" s="7"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="7">
         <v>7.8819280000000005E-2</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="8">
         <v>70.074600000000004</v>
       </c>
       <c r="E71" s="4"/>
@@ -14250,12 +14250,12 @@
       <c r="J71" s="8"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A72" s="9"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="9">
+      <c r="A72" s="4"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="4">
         <v>9.8383709999999999E-2</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="5">
         <v>71.053200000000004</v>
       </c>
       <c r="E72" s="7"/>
@@ -14264,12 +14264,12 @@
       <c r="J72" s="5"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="11">
+      <c r="A73" s="7"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="7">
         <v>0.10819747</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="8">
         <v>71.83</v>
       </c>
       <c r="E73" s="4"/>
@@ -14278,12 +14278,12 @@
       <c r="J73" s="8"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="9">
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="4">
         <v>0.10600862</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="5">
         <v>72.599900000000005</v>
       </c>
       <c r="E74" s="7"/>
@@ -14292,12 +14292,12 @@
       <c r="J74" s="5"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="11">
+      <c r="A75" s="7"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="7">
         <v>0.10684275999999999</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="8">
         <v>73.595299999999995</v>
       </c>
       <c r="E75" s="4"/>
@@ -14306,12 +14306,12 @@
       <c r="J75" s="8"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="9">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="4">
         <v>0.10709730000000001</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="5">
         <v>74.417100000000005</v>
       </c>
       <c r="E76" s="7"/>
@@ -14320,12 +14320,12 @@
       <c r="J76" s="5"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="11">
+      <c r="A77" s="7"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="7">
         <v>0.10683984000000001</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="8">
         <v>75.453199999999995</v>
       </c>
       <c r="E77" s="4"/>
@@ -14334,12 +14334,12 @@
       <c r="J77" s="8"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A78" s="9"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="9">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="4">
         <v>0.10683784</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="5">
         <v>76.571399999999997</v>
       </c>
       <c r="E78" s="7"/>
@@ -14348,12 +14348,12 @@
       <c r="J78" s="5"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="11">
+      <c r="A79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="7">
         <v>0.10691539</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="8">
         <v>77.323300000000003</v>
       </c>
       <c r="E79" s="4"/>
@@ -14362,12 +14362,12 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A80" s="9"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="9">
+      <c r="A80" s="4"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="4">
         <v>0.10690458</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="5">
         <v>78.366900000000001</v>
       </c>
       <c r="E80" s="7"/>
@@ -14376,12 +14376,12 @@
       <c r="J80" s="5"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="11">
+      <c r="A81" s="7"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="7">
         <v>6.6188369999999996E-2</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="8">
         <v>79.200100000000006</v>
       </c>
       <c r="E81" s="4"/>
@@ -14390,12 +14390,12 @@
       <c r="J81" s="8"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A82" s="9"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="9">
+      <c r="A82" s="4"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="4">
         <v>6.2003460000000003E-2</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="5">
         <v>79.941999999999993</v>
       </c>
       <c r="E82" s="7"/>
@@ -14404,12 +14404,12 @@
       <c r="J82" s="5"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="11">
+      <c r="A83" s="7"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="7">
         <v>6.0194360000000002E-2</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="8">
         <v>80.676199999999994</v>
       </c>
       <c r="E83" s="4"/>
@@ -14418,12 +14418,12 @@
       <c r="J83" s="8"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A84" s="9"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="9">
+      <c r="A84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="4">
         <v>5.9893700000000001E-2</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="5">
         <v>81.582700000000003</v>
       </c>
       <c r="E84" s="7"/>
@@ -14432,12 +14432,12 @@
       <c r="J84" s="5"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="11">
+      <c r="A85" s="7"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="7">
         <v>5.9850159999999999E-2</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="8">
         <v>82.509100000000004</v>
       </c>
       <c r="E85" s="4"/>
@@ -14446,12 +14446,12 @@
       <c r="J85" s="8"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A86" s="9"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="9">
+      <c r="A86" s="4"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="4">
         <v>4.2782779999999999E-2</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="5">
         <v>83.510199999999998</v>
       </c>
       <c r="E86" s="7"/>
@@ -14460,12 +14460,12 @@
       <c r="J86" s="5"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="11">
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="7">
         <v>4.1475919999999999E-2</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="8">
         <v>84.203800000000001</v>
       </c>
       <c r="E87" s="4"/>
@@ -14474,12 +14474,12 @@
       <c r="J87" s="8"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A88" s="9"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="9">
+      <c r="A88" s="4"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="4">
         <v>4.1299639999999999E-2</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="5">
         <v>85.002799999999993</v>
       </c>
       <c r="E88" s="7"/>
@@ -14488,12 +14488,12 @@
       <c r="J88" s="5"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="11">
+      <c r="A89" s="7"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="7">
         <v>4.1295369999999998E-2</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="8">
         <v>86.127499999999998</v>
       </c>
       <c r="E89" s="4"/>
@@ -14502,12 +14502,12 @@
       <c r="J89" s="8"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="9">
+      <c r="A90" s="4"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="4">
         <v>3.8457180000000001E-2</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="5">
         <v>86.875900000000001</v>
       </c>
       <c r="E90" s="7"/>
@@ -14516,12 +14516,12 @@
       <c r="J90" s="5"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="11">
+      <c r="A91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="7">
         <v>3.8491949999999997E-2</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="8">
         <v>87.713300000000004</v>
       </c>
       <c r="E91" s="4"/>
@@ -14530,12 +14530,12 @@
       <c r="J91" s="8"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="9">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="4">
         <v>3.8489959999999997E-2</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="5">
         <v>88.776700000000005</v>
       </c>
       <c r="E92" s="7"/>
@@ -14544,12 +14544,12 @@
       <c r="J92" s="5"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="11">
+      <c r="A93" s="7"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="7">
         <v>3.829581E-2</v>
       </c>
-      <c r="D93" s="12">
+      <c r="D93" s="8">
         <v>89.643799999999999</v>
       </c>
       <c r="E93" s="4"/>
@@ -14558,12 +14558,12 @@
       <c r="J93" s="8"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A94" s="9"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="9">
+      <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="4">
         <v>3.829631E-2</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="5">
         <v>90.572900000000004</v>
       </c>
       <c r="E94" s="7"/>
@@ -14572,12 +14572,12 @@
       <c r="J94" s="5"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="11">
+      <c r="A95" s="7"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="7">
         <v>3.8282289999999997E-2</v>
       </c>
-      <c r="D95" s="12">
+      <c r="D95" s="8">
         <v>92.073400000000007</v>
       </c>
       <c r="E95" s="4"/>
@@ -14586,12 +14586,12 @@
       <c r="J95" s="8"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A96" s="9"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="9">
+      <c r="A96" s="4"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="4">
         <v>3.8280990000000001E-2</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="5">
         <v>93.221400000000003</v>
       </c>
       <c r="E96" s="7"/>
@@ -14600,12 +14600,12 @@
       <c r="J96" s="5"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="11">
+      <c r="A97" s="7"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="7">
         <v>3.828086E-2</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="8">
         <v>94.340299999999999</v>
       </c>
       <c r="E97" s="4"/>
@@ -14614,12 +14614,12 @@
       <c r="J97" s="8"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A98" s="9"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="9">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="4">
         <v>5.7101800000000001E-2</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="5">
         <v>94.462000000000003</v>
       </c>
       <c r="E98" s="7"/>
@@ -14628,8 +14628,8 @@
       <c r="J98" s="5"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="4"/>
       <c r="F99" s="5"/>
@@ -14637,8 +14637,8 @@
       <c r="J99" s="8"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A100" s="9"/>
-      <c r="B100" s="10"/>
+      <c r="A100" s="4"/>
+      <c r="B100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="7"/>
       <c r="F100" s="8"/>
@@ -14646,8 +14646,8 @@
       <c r="J100" s="5"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="4"/>
       <c r="F101" s="5"/>
@@ -14655,8 +14655,8 @@
       <c r="J101" s="8"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A102" s="9"/>
-      <c r="B102" s="10"/>
+      <c r="A102" s="4"/>
+      <c r="B102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="7"/>
       <c r="F102" s="8"/>
@@ -14664,8 +14664,8 @@
       <c r="J102" s="5"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A103" s="11"/>
-      <c r="B103" s="12"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="4"/>
       <c r="F103" s="5"/>
@@ -14673,8 +14673,8 @@
       <c r="J103" s="8"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A104" s="9"/>
-      <c r="B104" s="10"/>
+      <c r="A104" s="4"/>
+      <c r="B104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="7"/>
       <c r="F104" s="8"/>
@@ -14682,8 +14682,8 @@
       <c r="J104" s="5"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="4"/>
       <c r="F105" s="5"/>
@@ -14691,8 +14691,8 @@
       <c r="J105" s="8"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
+      <c r="A106" s="4"/>
+      <c r="B106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="7"/>
       <c r="F106" s="8"/>
@@ -14700,8 +14700,8 @@
       <c r="J106" s="5"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="4"/>
       <c r="F107" s="5"/>
@@ -14709,8 +14709,8 @@
       <c r="J107" s="8"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A108" s="9"/>
-      <c r="B108" s="10"/>
+      <c r="A108" s="4"/>
+      <c r="B108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="7"/>
       <c r="F108" s="8"/>
@@ -14718,8 +14718,8 @@
       <c r="J108" s="5"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="4"/>
       <c r="F109" s="5"/>
@@ -14727,8 +14727,8 @@
       <c r="J109" s="8"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
+      <c r="A110" s="4"/>
+      <c r="B110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="7"/>
       <c r="F110" s="8"/>
@@ -14736,8 +14736,8 @@
       <c r="J110" s="5"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="4"/>
       <c r="F111" s="5"/>
@@ -14745,50 +14745,50 @@
       <c r="J111" s="8"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A112" s="9"/>
-      <c r="B112" s="10"/>
+      <c r="A112" s="4"/>
+      <c r="B112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="7"/>
       <c r="F112" s="8"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="4"/>
       <c r="F113" s="5"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A114" s="9"/>
-      <c r="B114" s="10"/>
+      <c r="A114" s="4"/>
+      <c r="B114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="7"/>
       <c r="F114" s="8"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="4"/>
       <c r="F115" s="5"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="9"/>
-      <c r="B116" s="10"/>
+      <c r="A116" s="4"/>
+      <c r="B116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="7"/>
       <c r="F116" s="8"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="4"/>
       <c r="F117" s="5"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="9"/>
-      <c r="B118" s="10"/>
+      <c r="A118" s="4"/>
+      <c r="B118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="7"/>
       <c r="F118" s="8"/>
